--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,181 +473,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56.21</t>
+          <t>&lt;0.06 mg/dL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;3.08</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
+          <t>&lt;1.61 mg/dL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
+          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "56.21",
-  "lambda_flc": "&lt;3.08",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)",
-    "Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)",
-    "Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>203.94</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-02-08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "203.94",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-02-08",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&gt;0.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-06-13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "0.08",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;0.57",
-  "date_of_lab": "2024-06-13",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
-  ],
-  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>&lt;0.06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-06-25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "&lt;0.06 mg/dL",
   "lambda_flc": "&lt;1.61 mg/dL",
   "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-06-25",
+  "date_of_lab": "2024-04-08",
   "evidence_sentences": [
     "Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa"
   ],
@@ -656,52 +512,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-04-17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-04-17",
-  "evidence_sentences": [
-    "2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
-}</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>56.21</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;3.08</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&gt;115.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "56.21",
+  "lambda_flc": "&lt;3.08",
+  "kappa_lambda_ratio": "&gt;115.57",
+  "date_of_lab": "2024-02-22",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)",
+    "Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)",
+    "Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
+  ],
+  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>203.94</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "203.94",
+  "lambda_flc": "&lt;0.15",
+  "kappa_lambda_ratio": "&gt;1456.71",
+  "date_of_lab": "2024-02-08",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
+  ],
+  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&gt;0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "0.08",
+  "lambda_flc": "&lt;0.15",
+  "kappa_lambda_ratio": "&gt;0.57",
+  "date_of_lab": "2024-06-13",
+  "evidence_sentences": [
+    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
+    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
+    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
+  ],
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>&lt;0.06 mg/dL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>&lt;1.61 mg/dL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "&lt;0.06 mg/dL",
   "lambda_flc": "&lt;1.61 mg/dL",
   "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-04-08",
+  "date_of_lab": "2024-06-25",
   "evidence_sentences": [
     "Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa"
   ],
@@ -512,6 +656,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&gt;115.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{
+  "kappa_flc": "16.18",
+  "lambda_flc": "&lt;0.15",
+  "kappa_lambda_ratio": "&gt;115.57",
+  "date_of_lab": "2024-04-17",
+  "evidence_sentences": [
+    "2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected."
+  ],
+  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
+}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,30 +498,70 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
+          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 &gt;115.57 (H)']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{
-  "kappa_flc": "56.21",
-  "lambda_flc": "&lt;3.08",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)",
-    "Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)",
-    "Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
-}</t>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -546,71 +586,151 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{
-  "kappa_flc": "203.94",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-02-08",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
-}</t>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;0.15</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&gt;0.57</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{
-  "kappa_flc": "0.08",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;0.57",
-  "date_of_lab": "2024-06-13",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
-  ],
-  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
-}</t>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
         </is>
       </c>
     </row>
@@ -622,83 +742,809 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;0.06 mg/dL</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&gt;0.57</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
+          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{
-  "kappa_flc": "&lt;0.06 mg/dL",
-  "lambda_flc": "&lt;1.61 mg/dL",
-  "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-06-25",
-  "evidence_sentences": [
-    "Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
-}</t>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2019-03-XX</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;9.81</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;1.91</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L) Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L) Kappa/Lambda FLC Ratio 0.66 - 2.22 Unable to calculate.']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-01-10_00:00:00.000_Progress_Notes_91134</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-06-XX</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 1.0 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL See serum free light chain results. !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (H): Data is abnormally high  (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 02/24/24 09:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,779   Creatinine/Unit, Urine mg/dL 47   MVHQIONGEX/52W, Urine 1,000 - 2,000 mg/(24.h) 836 (L)   Creatinine Clearance Calc 75 - 120 mL/min 145 (H)   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,779   Protein (Total), Urine mg/dL 4   Total UXLKGMW/10U, Urine 0.05 - 0.08 g/d 0.07   Bence Jones Quant, URN g/d &lt;0.01   Monoclonal Component ID, URN NOMCO  Kappa Bence Jones protein  present. !   UELP Interval h 24   UELP Volume mL 1,779   Protein Electrophoresis, URN NSPIKE  Abnormal, see comment: !   UIFIX interval h 24   UIFIX volume mL 1,779   Immunofixation, URN NOMCO  Abnormal, see comment: !   (L): Data is abnormally low  (H): Data is abnormally high  !: Data is abnormal    He received lymphodepletion chemotherapy with fludarabine 30mg /m2/day and cyclophosphamide 300mg /m2/day for 3 days from 3/6/2024 to 3/8/2024, with Carvykti infusion on 3/11/2024  He presented with maximum grade 1 cytokine release syndrome starting on day +6, not requiring treatment. He did not develop neurologic toxicity/ICANS.    Post-treatment disease restaging showed:  - Bone marrow aspirate/biopsy (4/8/2024): limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm. Normal male karyotype. ClonoSEQ pending.  - PET/CT (4/11/2024): stable mild diffuse FDG uptake within the osseous lesions throughout the axial and appendicular skeleton, in keeping with ongoing response to treatment. New, moderately avid right lower lobe groundglass opacities and atelectasis, likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and"
+  },
+  {
+    "note_id": 3,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+    "content": "Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Hepatitis B surf Ag w/RFLX   Result Value Ref Range    Hepatitis B surf Ag w/RFLX Nonreactive NREAC   Hepatitis B Core Antibody with Reflexive IgM   Result Value Ref Range    Hepatitis B Core Ab Nonreactive NREAC    Hepatitis B Core Antibody Interp       Antibody to the Hepatitis B core antigen (anti-HBc) was not detected.   COVID-19 Coronavirus Qualitative PCR   Result Value Ref Range    COVID-19 Coronavirus Qual PCR Specimen Type Nasal swab     COVID-19 Coronavirus Qual PCR Result None detected NDET    COVID-19 Coronavirus Qual PCR Interpretation       This is a negative result. Laboratory testing alone cannot rule out infection, particularly in the presence of clinical risk factors such as symptoms or exposure history.   CBC with **Note De-Identified via Obfuscation** Diff   Result Value Ref Range    WBC 1.68 (L) 4.3 - 10.0 10*3/uL    RBC 2.68 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 8.2 (L) 13.0 - 18.0 g/dL    Hematocrit 24 (L) 38.0 - 50.0 %    MCV 91 81 - 98 fL    MCH 30.6 27.3 - 33.6 pg    MCHC 33.6 32.2 - 36.5 g/dL    Platelet Count 33 (L) 150 - 400 10*3/uL    RDW-CV 18.8 (H) 11.0 - 14.5 %    % Neutrophils 73 %    % Lymphocytes 8 %    % Monocytes 18 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.23 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.13 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.30 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.02 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 174 &lt;210 U/L   Magnesium    Result Value Ref Range    Magnesium 1.9 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 137 135 - 145 meq/L    Potassium 3.5 (L) 3.6 - 5.2 meq/L    Chloride 104 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 113 62 - 125 mg/dL    Urea Nitrogen 16 8 - 21 mg/dL    Creatinine 0.54 0.51 - 1.18 mg/dL    Protein (Total) 7.8 6.0 - 8.2 g/dL    Albumin 3.4 (L) 3.5 - 5.2 g/dL    Bilirubin (Total) 0.4 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.0 0.0 - 0.3 mg/dL    Calcium 9.6 8.9 - 10.2 mg/dL    Phosphate 3.7 2.5 - 4.5 mg/dL    AST (GOT) 14 9 - 38 U/L    Alkaline Phosphatase (Total) 52 39 - 139 U/L    ALT (GPT) 17 10 - 64 U/L    eGFR by"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
+  },
+  {
+    "note_id": 6,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+  },
+  {
+    "note_id": 7,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  },
+  {
+    "note_id": 8,
+    "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+    "content": "likely infectious or inflammatory in etiology. Redemonstrated hypermetabolic focus in the right prostate which could represent inflammation versus less likely neoplasm, given recent PSA (2/29/2024) was within normal limits.  - **Note De-Identified via Obfuscation** MRI brain (4/10/2024): compared to MRI of head February 21, 2024, stable appearance of multiple bony foci of enhancement. No evidence of intracranial involvement.  - MRI C-T-L spine (4/8/2024): diffuse T1 hypointensity and enhancement of the marrow within cervical, thoracic, and lumbar spines. Finding may represent post-treatment change. Interval decrease conspicuity of previously visualized osseous lesions. No new osseous lesion or pathological fracture is identified. Interval resolution of epidural disease extension within the lumbar spine. The enhancement within the lumbar foramen zone has also  resolved with decreased extracortical enhancement at right posterior L3 element. Interval resolution of paraspinal musculature invasion at right C4-5. No signal abnormality within the spinal cord. No new left meningeal enhancement.     Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.   Protein (Total) 6.0 - 8.2 g/dL 5.9 (L)   Albumin 3.5 - 4.9 g/dL 4.2   Alpha 1 0.1 - 0.3 g/dL 0.1   Alpha 2 0.3 - 0.8 g/dL 0.6   Beta 0.6 - 1.0 g/dL 0.5 (L)   Gamma 0.4 - 1.4 g/dL 0.5   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL  IgG kappa monoclonal component. !   Monoclonal 1 Quant, Serum SEENUM g/dL 0.3 !   Monoclonal 2 ID, Serum NMCL  Kappa monoclonal free light chain. !   Monoclonal 2 Quant, Serum SEENUM g/dL 0 !   Immunofixation NOMCO  IgG kappa monoclonal component. !   (L): Data is abnormally low  !: Data is abnormal     Latest Reference Range &amp; Units 04/15/24 06:00   Creatinine Interval, URN h 24   Creatinine Total Volume, URN mL 1,796   Creatinine/Unit, Urine mg/dL 43   YNWGNFAOZH/08M, Urine 1,000 - 2,000 mg/(24.h) 772 (L)   Creatinine Clearance Calc 75 - 120 mL/min 107   Protein (Total) Interval, URN h 24   Protein Total Volume, URN mL 1,796   Protein (Total), Urine mg/dL &lt;4   Total VHQIONG/29B, Urine 0.05 - 0.08 g/d Not calculated   UELP Interval h 24   UELP Volume mL 1,796   Protein Electrophoresis, URN NSPIKE  Protein bands present which do not represent a monoclonal immunoglobulin, based on the negative urine immunofixation results. !   UIFIX interval h 24   UIFIX volume mL 1,796   Immunofixation, URN NOMCO  Previously identified monoclonal component currently not detected. !   (L): Data is  abnormally low  !: Data is abnormal    Restaging at day-30 showed: Partial Response (PR).    DISCUSSION/RECOMMENDATIONS   We started our conversation by reviewing his recent"
+  },
+  {
+    "note_id": 9,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "81 - 98 fL    MCH 33.8 (H) 27.3 - 33.6 pg    MCHC 34.4 32.2 - 36.5 g/dL    Platelet Count 310 150 - 400 10*3/uL    RDW-CV 13.2 11.6 - 14.4 %    % Neutrophils 80 %    % Lymphocytes 11 %    % Monocytes 6 %    % Eosinophils 3 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 36.07 (H) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 4.96 (H) 1.00 - 4.80 10*3/uL    Monocytes 2.70 (H) 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 1.35 (H) 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    Total Cells Counted 200     RBC Morphology See RBC data     Platelet Morphology See PLT count     WBC Morphology See Diff    Magnesium   Result Value Ref Range    Magnesium 1.8 1.8 - 2.4 mg/dL       Assessment/Plan:  Edgerrin Correia Diarteis a 55 year old male who is pre-collection, pre-auto transplant for IgG kappa multiple myeloma. Currently undergoing GCSF mobilization.    #MM:  - Diagnosed in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD ( **Note De-Identified via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda"
+  },
+  {
+    "note_id": 10,
+    "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+    "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-01-07_00:00:00.000_Progress_Notes_91124</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12/15/2021</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
+  },
+  {
+    "note_id": 2,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+  },
+  {
+    "note_id": 3,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left  parietal bone lesion is now 2cm, with no mass effect on the brain.LP on 12/22 showed 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22. Hickman was placed 1/6/21.    #Heme:  - Monitor counts"
+  },
+  {
+    "note_id": 4,
+    "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+    "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+  },
+  {
+    "note_id": 6,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with extraosseous extension into the scalp and intracranial cavity with mass effect on the brain. It also showed significant progressive metastatic disease in the axial and appendicular skeleton, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.    He got radiation therapy to left skull 3000 cGy from 08/31/2021 to 09/08/2021; right shoulder 800 Gy on 09/01; left shoulder 800 Gy 09/02; upper pelvis, bilateral hips 800 Gy 09/03. He said his pain in his chest and **Note De-Identified via Obfuscation** back got a lot better after radiation. He believes he started some unknown bone strengthening drug in 2019 and has continued to receive, but it is not on his medication list. On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31. His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. He  has not had a diagnostic LP thus far.        Mr. Almond Fitzgibbon is seen today with his wife, Dewitt Hoes, to discuss stem cell mobilization and autologous SCT. They are Spanish-speaking only, and an interpreter was utilized for this appointment. He had no fracture history prior to myeloma diagnosis or loss of consciousness or seizures. He denies peripheral neuropathy issues at this time. He does have occasional bone pain, which has been well controlled with ibuprofen. He has been taking this approximately twice per month.     PAST MEDICAL HISTORY     - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005    Past surgical history:  None    Transfusion history: Transfusion naive    Vascular (lines): Right port-a-cath, not accessed at time of assessment    Procedure sedation: He has never required sedation for a procedure. He does request to have pain medicine prior to next bone marrow biopsy.    Allergies:"
+  },
+  {
+    "note_id": 7,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  -Continue GCSF 1/8/22, CD34 on 1/11/22.     #Heme:  -Leukocytosis status post G-CSF.  Continue daily labs through collection.  -No transfusions indicated today.  Standard"
+  },
+  {
+    "note_id": 8,
+    "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
+    "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
+  },
+  {
+    "note_id": 9,
+    "title": "2021-11-13_00:00:00.000_Consults_91085",
+    "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
+  },
+  {
+    "note_id": 10,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "ClinicalNoteId: 66ddfccfc9355085788a394b23c237aba8ce741dd9bf7e06a9d9ebff48b5ad8a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-22 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA Plasma Cell Disorders Clinic NOTE      ONCOLOGY CARE TEAM    Primary Oncologist: Dr. Norris Cross    IDENTIFICATION/CC  Lac+Usc Medical Center Micahel Omlor is a 36 year old male with a diagnosis of relapsed/refractory IgG kappa multiple myeloma who is now D+32 from Mel200/ASCT.  He presents today for his BMT exit visit in the Myeloma clinic.  He is here with his wife, Dewitt Hoes.  We communicated via Raymond interpreter.      DIAGNOSIS: IgG kappa multiple myeloma diagnosed in March 2019   - Presented with generalized weakness, back and chest wall discomfort   - Left rib core biopsy (3/26/2019): Plasma cell neoplasm, kappa restricted, with patchy necrosis and neutrophilic infiltrate   - Bone marrow biopsy (10/8/2019): Normocellular marrow with trilineage hematopoiesis and involvement by plasma cell neoplasm approximately 5%.   - Baseline SPEP (per notes): IgG kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]    FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.    Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  K(44;01):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Chi Health - Mercy Corning 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Wallace infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12/15/2021</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
+  },
+  {
+    "note_id": 2,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+  },
+  {
+    "note_id": 3,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left  parietal bone lesion is now 2cm, with no mass effect on the brain.LP on 12/22 showed 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22. Hickman was placed 1/6/21.    #Heme:  - Monitor counts"
+  },
+  {
+    "note_id": 4,
+    "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+    "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+  },
+  {
+    "note_id": 6,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with extraosseous extension into the scalp and intracranial cavity with mass effect on the brain. It also showed significant progressive metastatic disease in the axial and appendicular skeleton, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.    He got radiation therapy to left skull 3000 cGy from 08/31/2021 to 09/08/2021; right shoulder 800 Gy on 09/01; left shoulder 800 Gy 09/02; upper pelvis, bilateral hips 800 Gy 09/03. He said his pain in his chest and **Note De-Identified via Obfuscation** back got a lot better after radiation. He believes he started some unknown bone strengthening drug in 2019 and has continued to receive, but it is not on his medication list. On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31. His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. He  has not had a diagnostic LP thus far.        Mr. Almond Fitzgibbon is seen today with his wife, Dewitt Hoes, to discuss stem cell mobilization and autologous SCT. They are Spanish-speaking only, and an interpreter was utilized for this appointment. He had no fracture history prior to myeloma diagnosis or loss of consciousness or seizures. He denies peripheral neuropathy issues at this time. He does have occasional bone pain, which has been well controlled with ibuprofen. He has been taking this approximately twice per month.     PAST MEDICAL HISTORY     - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005    Past surgical history:  None    Transfusion history: Transfusion naive    Vascular (lines): Right port-a-cath, not accessed at time of assessment    Procedure sedation: He has never required sedation for a procedure. He does request to have pain medicine prior to next bone marrow biopsy.    Allergies:"
+  },
+  {
+    "note_id": 7,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  -Continue GCSF 1/8/22, CD34 on 1/11/22.     #Heme:  -Leukocytosis status post G-CSF.  Continue daily labs through collection.  -No transfusions indicated today.  Standard"
+  },
+  {
+    "note_id": 8,
+    "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
+    "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
+  },
+  {
+    "note_id": 9,
+    "title": "2021-11-13_00:00:00.000_Consults_91085",
+    "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
+  },
+  {
+    "note_id": 10,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "ClinicalNoteId: 66ddfccfc9355085788a394b23c237aba8ce741dd9bf7e06a9d9ebff48b5ad8a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-22 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA Plasma Cell Disorders Clinic NOTE      ONCOLOGY CARE TEAM    Primary Oncologist: Dr. Norris Cross    IDENTIFICATION/CC  Lac+Usc Medical Center Micahel Omlor is a 36 year old male with a diagnosis of relapsed/refractory IgG kappa multiple myeloma who is now D+32 from Mel200/ASCT.  He presents today for his BMT exit visit in the Myeloma clinic.  He is here with his wife, Dewitt Hoes.  We communicated via Raymond interpreter.      DIAGNOSIS: IgG kappa multiple myeloma diagnosed in March 2019   - Presented with generalized weakness, back and chest wall discomfort   - Left rib core biopsy (3/26/2019): Plasma cell neoplasm, kappa restricted, with patchy necrosis and neutrophilic infiltrate   - Bone marrow biopsy (10/8/2019): Normocellular marrow with trilineage hematopoiesis and involvement by plasma cell neoplasm approximately 5%.   - Baseline SPEP (per notes): IgG kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]    FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.    Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  K(44;01):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Chi Health - Mercy Corning 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Wallace infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03/XX/2019</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10.']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
+  },
+  {
+    "note_id": 2,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+  },
+  {
+    "note_id": 3,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left  parietal bone lesion is now 2cm, with no mass effect on the brain.LP on 12/22 showed 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22. Hickman was placed 1/6/21.    #Heme:  - Monitor counts"
+  },
+  {
+    "note_id": 4,
+    "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+    "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+  },
+  {
+    "note_id": 6,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with extraosseous extension into the scalp and intracranial cavity with mass effect on the brain. It also showed significant progressive metastatic disease in the axial and appendicular skeleton, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.    He got radiation therapy to left skull 3000 cGy from 08/31/2021 to 09/08/2021; right shoulder 800 Gy on 09/01; left shoulder 800 Gy 09/02; upper pelvis, bilateral hips 800 Gy 09/03. He said his pain in his chest and **Note De-Identified via Obfuscation** back got a lot better after radiation. He believes he started some unknown bone strengthening drug in 2019 and has continued to receive, but it is not on his medication list. On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31. His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. He  has not had a diagnostic LP thus far.        Mr. Almond Fitzgibbon is seen today with his wife, Dewitt Hoes, to discuss stem cell mobilization and autologous SCT. They are Spanish-speaking only, and an interpreter was utilized for this appointment. He had no fracture history prior to myeloma diagnosis or loss of consciousness or seizures. He denies peripheral neuropathy issues at this time. He does have occasional bone pain, which has been well controlled with ibuprofen. He has been taking this approximately twice per month.     PAST MEDICAL HISTORY     - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005    Past surgical history:  None    Transfusion history: Transfusion naive    Vascular (lines): Right port-a-cath, not accessed at time of assessment    Procedure sedation: He has never required sedation for a procedure. He does request to have pain medicine prior to next bone marrow biopsy.    Allergies:"
+  },
+  {
+    "note_id": 7,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  -Continue GCSF 1/8/22, CD34 on 1/11/22.     #Heme:  -Leukocytosis status post G-CSF.  Continue daily labs through collection.  -No transfusions indicated today.  Standard"
+  },
+  {
+    "note_id": 8,
+    "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
+    "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
+  },
+  {
+    "note_id": 9,
+    "title": "2021-11-13_00:00:00.000_Consults_91085",
+    "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
+  },
+  {
+    "note_id": 10,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "ClinicalNoteId: 66ddfccfc9355085788a394b23c237aba8ce741dd9bf7e06a9d9ebff48b5ad8a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-22 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA Plasma Cell Disorders Clinic NOTE      ONCOLOGY CARE TEAM    Primary Oncologist: Dr. Norris Cross    IDENTIFICATION/CC  Lac+Usc Medical Center Micahel Omlor is a 36 year old male with a diagnosis of relapsed/refractory IgG kappa multiple myeloma who is now D+32 from Mel200/ASCT.  He presents today for his BMT exit visit in the Myeloma clinic.  He is here with his wife, Dewitt Hoes.  We communicated via Raymond interpreter.      DIAGNOSIS: IgG kappa multiple myeloma diagnosed in March 2019   - Presented with generalized weakness, back and chest wall discomfort   - Left rib core biopsy (3/26/2019): Plasma cell neoplasm, kappa restricted, with patchy necrosis and neutrophilic infiltrate   - Bone marrow biopsy (10/8/2019): Normocellular marrow with trilineage hematopoiesis and involvement by plasma cell neoplasm approximately 5%.   - Baseline SPEP (per notes): IgG kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]    FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.    Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  K(44;01):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Chi Health - Mercy Corning 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Wallace infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-06-30_00:00:00.000_Progress_Notes_91265</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03/XX/2019</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
+  },
+  {
+    "note_id": 2,
+    "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+    "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+  },
+  {
+    "note_id": 3,
+    "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+    "content": "he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left  parietal bone lesion is now 2cm, with no mass effect on the brain.LP on 12/22 showed 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22. Hickman was placed 1/6/21.    #Heme:  - Monitor counts"
+  },
+  {
+    "note_id": 4,
+    "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+    "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+  },
+  {
+    "note_id": 5,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+  },
+  {
+    "note_id": 6,
+    "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+    "content": "24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with extraosseous extension into the scalp and intracranial cavity with mass effect on the brain. It also showed significant progressive metastatic disease in the axial and appendicular skeleton, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.    He got radiation therapy to left skull 3000 cGy from 08/31/2021 to 09/08/2021; right shoulder 800 Gy on 09/01; left shoulder 800 Gy 09/02; upper pelvis, bilateral hips 800 Gy 09/03. He said his pain in his chest and **Note De-Identified via Obfuscation** back got a lot better after radiation. He believes he started some unknown bone strengthening drug in 2019 and has continued to receive, but it is not on his medication list. On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31. His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. He  has not had a diagnostic LP thus far.        Mr. Almond Fitzgibbon is seen today with his wife, Dewitt Hoes, to discuss stem cell mobilization and autologous SCT. They are Spanish-speaking only, and an interpreter was utilized for this appointment. He had no fracture history prior to myeloma diagnosis or loss of consciousness or seizures. He denies peripheral neuropathy issues at this time. He does have occasional bone pain, which has been well controlled with ibuprofen. He has been taking this approximately twice per month.     PAST MEDICAL HISTORY     - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005    Past surgical history:  None    Transfusion history: Transfusion naive    Vascular (lines): Right port-a-cath, not accessed at time of assessment    Procedure sedation: He has never required sedation for a procedure. He does request to have pain medicine prior to next bone marrow biopsy.    Allergies:"
+  },
+  {
+    "note_id": 7,
+    "title": "2022-01-10_00:00:00.000_Progress_Notes_91134",
+    "content": "via Obfuscation** 3/2019-11/2019).  - Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20),  thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain,significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  -Continue GCSF 1/8/22, CD34 on 1/11/22.     #Heme:  -Leukocytosis status post G-CSF.  Continue daily labs through collection.  -No transfusions indicated today.  Standard"
+  },
+  {
+    "note_id": 8,
+    "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
+    "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
+  },
+  {
+    "note_id": 9,
+    "title": "2021-11-13_00:00:00.000_Consults_91085",
+    "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
+  },
+  {
+    "note_id": 10,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "ClinicalNoteId: 66ddfccfc9355085788a394b23c237aba8ce741dd9bf7e06a9d9ebff48b5ad8a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-22 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA Plasma Cell Disorders Clinic NOTE      ONCOLOGY CARE TEAM    Primary Oncologist: Dr. Norris Cross    IDENTIFICATION/CC  Lac+Usc Medical Center Micahel Omlor is a 36 year old male with a diagnosis of relapsed/refractory IgG kappa multiple myeloma who is now D+32 from Mel200/ASCT.  He presents today for his BMT exit visit in the Myeloma clinic.  He is here with his wife, Dewitt Hoes.  We communicated via Raymond interpreter.      DIAGNOSIS: IgG kappa multiple myeloma diagnosed in March 2019   - Presented with generalized weakness, back and chest wall discomfort   - Left rib core biopsy (3/26/2019): Plasma cell neoplasm, kappa restricted, with patchy necrosis and neutrophilic infiltrate   - Bone marrow biopsy (10/8/2019): Normocellular marrow with trilineage hematopoiesis and involvement by plasma cell neoplasm approximately 5%.   - Baseline SPEP (per notes): IgG kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]    FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.    Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  K(44;01):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Chi Health - Mercy Corning 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Wallace infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>&lt;0.06 mg/dL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;1.61 mg/dL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden Fossa initially presented in  March 2019 with back pain and chest pain for 10 days.  A CT scan was obtained showing lytic bone lesions and a subsequent biopsy of the left 3rd rib lesion showed a plasmacytoma **Note De-Identified via Obfuscation** and baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190.  He then completed 7 cycles of CyBorD achieving a VGPR with initial plan for transplant  But did not pursue this due to issues with insurance coverage.  He was switched to lenalidomide maintenance until disease progression at which time he resumed RVD, then RVD+daratumumab, CyBorD, KPD and palliative radiation.  He underwent Mel200/ASCT on 1/21/2022 and is now D+32.    He reports that currently his energy is okay.  He has no pain and requires no pain medications.  He has no infection.  He has lost about 8 kg since his transplant.  He has nausea, for which he takes anti-emetics.  Taste changes since transplant are improving.  No diarrhea.  He has no neuropathy.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those mentioned in the HPI, complete ROS is negative.      HOME MEDICATIONS  Current Outpatient Medications:     calcium carbonate 500 MG chewable tablet, Chew and swallow 2  tablets (1,000 mg) by mouth 3 times a day with meals., Disp: 180 tablet, Rfl: 0    calcium citrate-vitamin D 315-200 MG-UNIT tablet, Take 2 tablets by mouth daily., Disp: 60 tablet, Rfl: 1    ciprofloxacin-dexamethasone 0.3-0.1 % otic suspension, Place 4 drops into right ear 2 times a day for 7 days., Disp: 7.5 mL, Rfl: 0    magnesium plus protein 133 MG tablet, Take 1 tablet (133 mg) by mouth 2 times a day., Disp: 60 tablet, Rfl: 0    Multiple Vitamins-Minerals (CertaVite Senior) tablet, Take 1 tablet by mouth daily., Disp: 100 tablet, Rfl: 2    nystatin 100000 UNIT/ML mouth/throat suspension, Swish and Swallow 5 mL by mouth 4 times a day. (Patient not taking: Reported on 2/22/2022), Disp: 60 mL, Rfl: 0    ondansetron 8 MG tablet, Take 1 tablet (8 mg) by mouth every 8 hours as needed for nausea/vomiting. Take 24 hours after the last dose of chemotherapy., Disp: 30 tablet, Rfl: 2    potassium &amp; sodium phosphates 280-160-250 MG packet, Take 1 packet by mouth 2 times a day with meals., Disp: 60 packet, Rfl: 0    potassium chloride ER 10 MEQ ER tablet, Take 2 tablets (20 mEq) by mouth 2 times a day.,"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "g/dL)   - evaluated for stem cell transplant at Twin Cities Community Hospital 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to COVID19 infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000 cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.61 on 09/60/4540   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide maintenance, started 6/10/2022 - 11/2022  9.  KPd, started 11/2022  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  9.  KPd, started 11/2022 - 6/2023  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  11.  PACE, C1 8/10/2023  12.  XRT, 10/19/2023, 800 cGy to the right rib in one fraction  13.  XRT, 11/10/2023, right pelvis and right tibia  14.  Doxorubicin, bortezomib, dexamethasone, 11/13/2023  15.  Isatuximab, carfilzomib, dexamethasone - 12/27/2023 - 1/17/2024 with no **Note De-Identified via Obfuscation** response  16.  Talquetamab bridging, 1/24/2024 - 2/16/2024  17.  XRT to L2-L4 with 8 Gy in 1 fraction on 1/31/2024  18.  Ciltacabtagene autoleucel (Carvykti), D0 = 3/11/2024   - collection of T-cells on 12/7/2023 but out of spec due to low cell count (0.1 x 10(6) cells/kg)   - second apheresis for T-cells on 1/23/2024   - lymphodepleting chemotherapy with cyclophosphamide 300 mg/m2/day and fludarabine 30 mg/m2/day for 3 days, from 3/6/2024 - 3/8/2024   - Cilta-cel infusion, 0.5 to 1 x 10(6) CAR-positive viable T-cells on 3/11/2024   -  Grade 1 CRS, no treatment required   - Post-CAR T course notable for neutropenic fever and non-neutropenic fever, c.diff colitis      RESPONSE TO THERAPY: VGPR (bone marrow negative, MRD pending)    Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa  Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm      ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    Mr. Jayshaun Ara returns to the Vibra Hospital Of Central Dakotas myeloma clinic today for post-CAR T-cell follow-up.  He is now D+106 from Cilta-cel infusion.    He reports that he feels well.  He continues to follow up locally with Dr. Dreama Saa, including having his labs checked weekly.  He has not needed any transfusions and has had no infection.  He has had no diarrhea.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those"
+  },
+  {
+    "note_id": 3,
+    "title": "2021-12-17_00:00:00.000_Progress_Notes_91098",
+    "content": "ClinicalNoteId: 751cb54def0c2f5b16f52ef9e586dc381b915472b77a16069467b7774e005657 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-17 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA STEM CELL TRANSPLANT SERVICE ARRIVAL CONFERENCE     Today I met with Heraclio Seidman Diarte in an The Timken Company. Also present in the conference was the team nurse and the patients wife. The patient and his wife are spanish speakers primarily and an interpreter was present for the entire meeting. The patient is here for stem cell collection and autologous stem cell transplantation for multiple myeloma. For additional detailed history regarding the patients multiple myeloma and past medical history, please refer to history and physical exam note dictated by Dr. Oley Balm MD,PhD on 11/9.         ONCOLOGIC HISTORY    The patient a 30 year old male with IgG kappa multiple myeloma, originally diagnosed in March 2019. He was weak and ill with skeletal pain was was admitted to an outside hospital from 3/23/2019 through 4/1/2019. At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99. IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7. Biopsy of left 3rd rib p demonstrated plasmacytoma. Bone marrow biopsy was not performed. 3/30 CT angiogram to r/o PE:  FINDINGS: No PE.  Left lateral third rib soft tissue mass with bone destruction, the mass measures 5.4 x 3.9 cm. Left lateral fifth lytic bone metastasis with soft tissue component present. Lytic bone metastasis seen at the left lateral eighth rib, unchanged. Multiple lytic bone metastasis again seen in the spine.  Started on CyBorD and completed 6 cycles between 3/2019 - 11/2019. Repeat bone marrow biopsy 10/18/2019 with 5% residual myeloma plasma cells.   MRI showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. Lesions in bilateral proximal humeri were at risk for pathological fracture. Evaluated for autotransplant at Presentation Medical Center, but his insurance would not cover the transplant. He was then placed on maintenance  Revlimid from 12/2019-4/2020. In 11/2020, the patient tested positive for COVID (never vaccinated) but did not suffer serious illness.  There were problems with getting the Revlimid reliably and his M-spike began to climb. Plan was to add daratumumab to the lenalidomide. However there were insurance difficulties getting this therapy going and so he was placed back on CyBorD.  He had some control of disease temporarily.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+    "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
+  },
+  {
+    "note_id": 5,
+    "title": "2022-02-25_00:00:00.000_BMT_Conference_Note_91246",
+    "content": "ClinicalNoteId: d960052389ef1641a7f9e7eac592d65c3e56e529fe544bda2c6ee9173d76e3a4 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-25 00:00:00.000 NoteType: BMT Conference Note NoteText: **Note De-Identified via Obfuscation**  CANCER CARE ALLIANCE TRANSPLANT CONFERENCE    Dear Dr. Berline Lopes.  Today, I had the pleasure of meeting your patient, Mr. Davarious Tumbleson, who came together with his wife, and the conference was held in the presence of a Spanish interpreter, as well as an Therapist, sports for the Outpatient Autologous Transplant Team.  This conference was meant to summarize the details of the autologous transplant and the plan for transferring his care back to your service.    THE PRETRANSPLANT WORKUP:   1.  For Multiple Myeloma.   a.  Peripheral blood flow cytometry on 12/15/2021 was negative for involvement by myeloma cells.  b.  Bone marrow biopsy on 12/17/2021 was negative by flow cytometry.  Pathology showed normal cellular bone marrow with no evidence of disease.  Cytogenetics were normal.   c.  Osseous survey on 12/20/2021 shows lesions in the left femur, bilateral humeri, T6 compression fracture, lytic lesions biggest was 2.5 cm.  d.  A PET CT scan on 12/30/2021 showed new FDG avid foci in the prostate.  There were scattered foci of visible myeloma, left femoral head lesion 0.7 cm, new left upper lobe hazy solid nodule 0.7 cm.  The decision was for pulmonary nodules to repeat chest CT if the patient spikes temperature; otherwise on day +30.  For the prostate uptake, he had a followup PSA reflexive that was 0.36.  Therefore, the decision was made for no further workup.  e.  Brain MRI on 12/18/2021 showed a 2 cm left parietal bone mass; previously was 4 cm and multiple smaller lesions in the skull.  Because of the finding, a diagnostic lumbar puncture was done on 12/22/2021 with 0  unclassified cells and no plasma cells on flow cytometry.  f.  SPEP on 12/20/2021 showed M-spike of 0.1.  Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72.  Immunoglobulin levels:  IgG was 537, IgA 64, IgM 13.  g.  UPEP on 12/20/2021:  Creatinine clearance was 169.  There were no M-spike protein detected.  h.  Second organ  function test.  i.  EKG on 12/16/202021:  78 pulse per minute and normal sinus rhythm.   j.  Echocardiogram 12/22/2021:  Left ventricle size is slightly small.  Ejection fraction 72%.  Liver appears abnormal.  Because of that, a liver ultrasound was done on 12/28/2021 that showed normal vasculature, but fatty liver.   k.  He had hepatitis panel that was positive for antibodies, but on 01/07/2022, hepatitis B virus PCR was negative.    OTORHINOLOGY:  The patient was referred for history of chronic ear perforations and ear infection causing hearing loss.  He was seen by Dr. Arnoldo Hooker on"
+  }
+]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>16.18</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>&gt;115.57</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-04-17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-04-17",
-  "evidence_sentences": [
-    "2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
-}</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "note_id": 1,
+    "title": "2022-02-22_00:00:00.000_Progress_Notes_91240",
+    "content": "D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022    ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    For full history please refer to the H&amp;P from Dr. Billie Ruddy dated 11/9/2021 when the patient was seen for transplant consultation.    But briefly, Mr. Tilden Fossa initially presented in  March 2019 with back pain and chest pain for 10 days.  A CT scan was obtained showing lytic bone lesions and a subsequent biopsy of the left 3rd rib lesion showed a plasmacytoma **Note De-Identified via Obfuscation** and baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190.  He then completed 7 cycles of CyBorD achieving a VGPR with initial plan for transplant  But did not pursue this due to issues with insurance coverage.  He was switched to lenalidomide maintenance until disease progression at which time he resumed RVD, then RVD+daratumumab, CyBorD, KPD and palliative radiation.  He underwent Mel200/ASCT on 1/21/2022 and is now D+32.    He reports that currently his energy is okay.  He has no pain and requires no pain medications.  He has no infection.  He has lost about 8 kg since his transplant.  He has nausea, for which he takes anti-emetics.  Taste changes since transplant are improving.  No diarrhea.  He has no neuropathy.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those mentioned in the HPI, complete ROS is negative.      HOME MEDICATIONS  Current Outpatient Medications:     calcium carbonate 500 MG chewable tablet, Chew and swallow 2  tablets (1,000 mg) by mouth 3 times a day with meals., Disp: 180 tablet, Rfl: 0    calcium citrate-vitamin D 315-200 MG-UNIT tablet, Take 2 tablets by mouth daily., Disp: 60 tablet, Rfl: 1    ciprofloxacin-dexamethasone 0.3-0.1 % otic suspension, Place 4 drops into right ear 2 times a day for 7 days., Disp: 7.5 mL, Rfl: 0    magnesium plus protein 133 MG tablet, Take 1 tablet (133 mg) by mouth 2 times a day., Disp: 60 tablet, Rfl: 0    Multiple Vitamins-Minerals (CertaVite Senior) tablet, Take 1 tablet by mouth daily., Disp: 100 tablet, Rfl: 2    nystatin 100000 UNIT/ML mouth/throat suspension, Swish and Swallow 5 mL by mouth 4 times a day. (Patient not taking: Reported on 2/22/2022), Disp: 60 mL, Rfl: 0    ondansetron 8 MG tablet, Take 1 tablet (8 mg) by mouth every 8 hours as needed for nausea/vomiting. Take 24 hours after the last dose of chemotherapy., Disp: 30 tablet, Rfl: 2    potassium &amp; sodium phosphates 280-160-250 MG packet, Take 1 packet by mouth 2 times a day with meals., Disp: 60 packet, Rfl: 0    potassium chloride ER 10 MEQ ER tablet, Take 2 tablets (20 mEq) by mouth 2 times a day.,"
+  },
+  {
+    "note_id": 2,
+    "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+    "content": "g/dL)   - evaluated for stem cell transplant at Twin Cities Community Hospital 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to COVID19 infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000 cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.61 on 09/60/4540   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide maintenance, started 6/10/2022 - 11/2022  9.  KPd, started 11/2022  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  9.  KPd, started 11/2022 - 6/2023  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  11.  PACE, C1 8/10/2023  12.  XRT, 10/19/2023, 800 cGy to the right rib in one fraction  13.  XRT, 11/10/2023, right pelvis and right tibia  14.  Doxorubicin, bortezomib, dexamethasone, 11/13/2023  15.  Isatuximab, carfilzomib, dexamethasone - 12/27/2023 - 1/17/2024 with no **Note De-Identified via Obfuscation** response  16.  Talquetamab bridging, 1/24/2024 - 2/16/2024  17.  XRT to L2-L4 with 8 Gy in 1 fraction on 1/31/2024  18.  Ciltacabtagene autoleucel (Carvykti), D0 = 3/11/2024   - collection of T-cells on 12/7/2023 but out of spec due to low cell count (0.1 x 10(6) cells/kg)   - second apheresis for T-cells on 1/23/2024   - lymphodepleting chemotherapy with cyclophosphamide 300 mg/m2/day and fludarabine 30 mg/m2/day for 3 days, from 3/6/2024 - 3/8/2024   - Cilta-cel infusion, 0.5 to 1 x 10(6) CAR-positive viable T-cells on 3/11/2024   -  Grade 1 CRS, no treatment required   - Post-CAR T course notable for neutropenic fever and non-neutropenic fever, c.diff colitis      RESPONSE TO THERAPY: VGPR (bone marrow negative, MRD pending)    Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa  Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm      ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    Mr. Jayshaun Ara returns to the Vibra Hospital Of Central Dakotas myeloma clinic today for post-CAR T-cell follow-up.  He is now D+106 from Cilta-cel infusion.    He reports that he feels well.  He continues to follow up locally with Dr. Dreama Saa, including having his labs checked weekly.  He has not needed any transfusions and has had no infection.  He has had no diarrhea.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those"
+  },
+  {
+    "note_id": 3,
+    "title": "2021-12-17_00:00:00.000_Progress_Notes_91098",
+    "content": "ClinicalNoteId: 751cb54def0c2f5b16f52ef9e586dc381b915472b77a16069467b7774e005657 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-17 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** SCCA STEM CELL TRANSPLANT SERVICE ARRIVAL CONFERENCE     Today I met with Heraclio Seidman Diarte in an The Timken Company. Also present in the conference was the team nurse and the patients wife. The patient and his wife are spanish speakers primarily and an interpreter was present for the entire meeting. The patient is here for stem cell collection and autologous stem cell transplantation for multiple myeloma. For additional detailed history regarding the patients multiple myeloma and past medical history, please refer to history and physical exam note dictated by Dr. Oley Balm MD,PhD on 11/9.         ONCOLOGIC HISTORY    The patient a 30 year old male with IgG kappa multiple myeloma, originally diagnosed in March 2019. He was weak and ill with skeletal pain was was admitted to an outside hospital from 3/23/2019 through 4/1/2019. At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99. IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7. Biopsy of left 3rd rib p demonstrated plasmacytoma. Bone marrow biopsy was not performed. 3/30 CT angiogram to r/o PE:  FINDINGS: No PE.  Left lateral third rib soft tissue mass with bone destruction, the mass measures 5.4 x 3.9 cm. Left lateral fifth lytic bone metastasis with soft tissue component present. Lytic bone metastasis seen at the left lateral eighth rib, unchanged. Multiple lytic bone metastasis again seen in the spine.  Started on CyBorD and completed 6 cycles between 3/2019 - 11/2019. Repeat bone marrow biopsy 10/18/2019 with 5% residual myeloma plasma cells.   MRI showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. Lesions in bilateral proximal humeri were at risk for pathological fracture. Evaluated for autotransplant at Presentation Medical Center, but his insurance would not cover the transplant. He was then placed on maintenance  Revlimid from 12/2019-4/2020. In 11/2020, the patient tested positive for COVID (never vaccinated) but did not suffer serious illness.  There were problems with getting the Revlimid reliably and his M-spike began to climb. Plan was to add daratumumab to the lenalidomide. However there were insurance difficulties getting this therapy going and so he was placed back on CyBorD.  He had some control of disease temporarily.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull lesion with"
+  },
+  {
+    "note_id": 4,
+    "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+    "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
+  },
+  {
+    "note_id": 5,
+    "title": "2022-02-25_00:00:00.000_BMT_Conference_Note_91246",
+    "content": "ClinicalNoteId: d960052389ef1641a7f9e7eac592d65c3e56e529fe544bda2c6ee9173d76e3a4 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2022-02-25 00:00:00.000 NoteType: BMT Conference Note NoteText: **Note De-Identified via Obfuscation**  CANCER CARE ALLIANCE TRANSPLANT CONFERENCE    Dear Dr. Berline Lopes.  Today, I had the pleasure of meeting your patient, Mr. Davarious Tumbleson, who came together with his wife, and the conference was held in the presence of a Spanish interpreter, as well as an Therapist, sports for the Outpatient Autologous Transplant Team.  This conference was meant to summarize the details of the autologous transplant and the plan for transferring his care back to your service.    THE PRETRANSPLANT WORKUP:   1.  For Multiple Myeloma.   a.  Peripheral blood flow cytometry on 12/15/2021 was negative for involvement by myeloma cells.  b.  Bone marrow biopsy on 12/17/2021 was negative by flow cytometry.  Pathology showed normal cellular bone marrow with no evidence of disease.  Cytogenetics were normal.   c.  Osseous survey on 12/20/2021 shows lesions in the left femur, bilateral humeri, T6 compression fracture, lytic lesions biggest was 2.5 cm.  d.  A PET CT scan on 12/30/2021 showed new FDG avid foci in the prostate.  There were scattered foci of visible myeloma, left femoral head lesion 0.7 cm, new left upper lobe hazy solid nodule 0.7 cm.  The decision was for pulmonary nodules to repeat chest CT if the patient spikes temperature; otherwise on day +30.  For the prostate uptake, he had a followup PSA reflexive that was 0.36.  Therefore, the decision was made for no further workup.  e.  Brain MRI on 12/18/2021 showed a 2 cm left parietal bone mass; previously was 4 cm and multiple smaller lesions in the skull.  Because of the finding, a diagnostic lumbar puncture was done on 12/22/2021 with 0  unclassified cells and no plasma cells on flow cytometry.  f.  SPEP on 12/20/2021 showed M-spike of 0.1.  Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72.  Immunoglobulin levels:  IgG was 537, IgA 64, IgM 13.  g.  UPEP on 12/20/2021:  Creatinine clearance was 169.  There were no M-spike protein detected.  h.  Second organ  function test.  i.  EKG on 12/16/202021:  78 pulse per minute and normal sinus rhythm.   j.  Echocardiogram 12/22/2021:  Left ventricle size is slightly small.  Ejection fraction 72%.  Liver appears abnormal.  Because of that, a liver ultrasound was done on 12/28/2021 that showed normal vasculature, but fatty liver.   k.  He had hepatitis panel that was positive for antibodies, but on 01/07/2022, hepatitis B virus PCR was negative.    OTORHINOLOGY:  The patient was referred for history of chronic ear perforations and ear infection causing hearing loss.  He was seen by Dr. Arnoldo Hooker on"
+  }
+]</t>
         </is>
       </c>
     </row>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,35 +473,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&gt;0.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+  "content": "C.diff colitis  Pneumonia  Mild coronary artery calcification (seen on PET/CT 6/2024)      PAST SURGICAL HISTORY    None    SOCIAL HISTORY    He is married and has young children.  He is a never smoker, does not drink alcohol, does not use drugs.  Lives in North Vernon.  He does not work currently.      FAMILY HISTORY    Mother has diabetes, living  Father is alive and well  Siblings are alive well, one sister with thyroid issue  3 Children are alive and well      PHYSICAL EXAMINATION    General: awake, alert and oriented in no acute distress  Remainder of examination deferred due to telehealth    LABORATORY STUDIES  Results for orders placed or performed during the hospital encounter of 06/13/24   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 138 135 - 145 meq/L    Potassium 3.8 3.6 - 5.2 meq/L    Chloride 106 98 - 108 meq/L    Carbon Dioxide, Total 25 22 - 32 meq/L    Anion  Gap 7 4 - 12    Glucose 95 62 - 125 mg/dL    Urea Nitrogen 13 8 - 21 mg/dL    Creatinine 1.61 (L) 0.51 - 1.18 mg/dL    Protein (Total) 6.2 6.0 - 8.2 g/dL    Albumin 4.5 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 9.1 8.9 - 09.6 mg/dL    AST (GOT) 20 9 - 38 U/L    Alkaline Phosphatase (Total) 105 39 - 139 U/L    ALT (GPT) 23 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   CBC with Diff   Result Value Ref Range    WBC 1.71 (L) 4.3 - 10.0 10*3/uL    RBC 2.65 (L) 4.40 - 5.60 10*6/uL    Hemoglobin 10.4 (L) 13.0 - 18.0 g/dL    Hematocrit 30 (L) 04.5 - 50.0 %    MCV 114 (H) 81 - 98 fL    MCH 39.2 (H) 27.3 - 33.6 pg    MCHC 34.3 32.2 - 36.5 g/dL    Platelet Count 78 (L) 150 - 400 10*3/uL    RDW-CV 14.1 11.0 - 14.5 %    % Neutrophils 30 %    % Lymphocytes 46 %    % Monocytes 22 %    % Eosinophils 2 %    % Basophils 0 %    % Immature Granulocytes 0 %    Neutrophils 0.51 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.79 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.38 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.03 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - **Note De-Identified via Obfuscation** 0.20 10*3/uL    Immature Granulocytes 0.00 0.00 - 0.05 10*3/uL    RBC Morphology See CBC - no additional findings     Platelet Morphology See PLT count     WBC Morphology See Diff    Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 5.9 (L) 6.0 - 8.2 g/dL    Albumin 4.4 3.5 - 4.9 g/dL    Alpha 1 0.1 0.1 - 0.3 g/dL    Alpha 2 0.6 0.3 - 0.8 g/dL    Beta 0.5 (L) 0.6 - 1.0 g/dL    Gamma 0.2 (L) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT     Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed.   Immunoglobulins A,G,M   Result Value Ref Range     Immunoglobulin A &lt;3 (L) 84 - 499 mg/dL    Immunoglobulin G 454 (L) 610 - 1,616 mg/dL"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>56.21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;3.08</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>&lt;9.81</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;1.91</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9', 'Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>{
   "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
@@ -510,38 +546,38 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>203.94</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>&gt;1456.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-02-08</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>{
   "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
@@ -550,78 +586,42 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2021-12-01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
-  "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
-}</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>129.54</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>&gt;914.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2019-03-XX</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.']</t>
+          <t>['11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>{
-  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
-  "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
+  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
 }</t>
         </is>
       </c>
@@ -629,7 +629,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-01-07_00:00:00.000_Progress_Notes_91124</t>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -654,242 +654,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
+          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.', 'CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>{
-  "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
-  "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2021-12-15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
-  "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021-12-15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72.']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
-  "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-06-30_00:00:00.000_Progress_Notes_91265</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
-  "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021-11-13_00:00:00.000_Consults_91085</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2019-03-XX</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.']</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-11-13_00:00:00.000_Consults_91085",
-  "content": "ClinicalNoteId: 6a0afb469103f00ae6afbcac49d922197ba34a072b6853ce1eea33dfde6c9a9a PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-11-13 00:00:00.000 NoteType: Consults NoteText: **Note De-Identified via Obfuscation** Ferguson CANCER CARE ALLIANCE CONSULT    Dear Dr. Berline Lopes:    I had the pleasure of seeing in consultation in person your patient, Auryn Paige Diarte at your request .  This was done with a Spanish interpreter.  I spent a total of 70 minutes from 9:15 A.M. to 10:25 A.M. face-to-face care with this patient on 11/09/2021 with a Spanish interpreter discussing with the patient his options for therapy.      Briefly, he is, as you are aware, a 33 year old with multiple myeloma, IgG kappa.  If I understand correctly, he was originally diagnosed around 03/2019 with an M-spike of around 6   . He had generalized weakness, back and chest wall discomfort for about 10 days prior to the diagnosis.  At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.  The patient had a CT that had lytic lesions including the left fifth rib and the sacrum.  If I understand correctly, he was felt to have Strep pneumoniae sepsis with his first cycle of Cytoxan, Velcade Dex.  There was no FISH and no beta 2 as far as I could find in the records sent to me.  If I understand correctly, he was treated with Cytoxan, Velcade, dexamethasone and then for 6 cycles and then put on maintenance Revlimid.  In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5.  He was then being evaluated for an autotransplant.  His M-spike went down to 0.3.  If I understand correctly, he was being assessed at Oceans Behavioral Hospital Of Lake Charles.  They said he had no insurance  coverage because of his immigration status and so he was not offered a transplant nor he was referred for charity care over to the Cleburne Surgical Center LLP.  If I understand, he was continued on maintenance Revlimid until about 04/2020 when he got switched to RVD as MM disease started to declare itself again.  If I understand, in 11/2020 he got COVID  but before that on 06/01/2020 he was switched to dara, RVD  because of disease declaring itself.  He then was off of therapy because of COVID.  In 10/2020   kappa was 24.67, kappa lambda 137.06.  In 12/2020   kappa was 30.75, kappa lambda 16184.  Of note, he reported that when he got COVID diagnosed in 11/2020 he had just gotten his flu shot and he just felt sick with a lot of congestion.  Of note, he has never received COVID-19 vaccines.  If I understand correctly, he was progressing again and in 04/2021 to 07/2021 he went on again Cytoxan, Velcade,"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>&lt;0.06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
-  "content": "g/dL)   - evaluated for stem cell transplant at Twin Cities Community Hospital 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to COVID19 infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000 cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.61 on 09/60/4540   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide maintenance, started 6/10/2022 - 11/2022  9.  KPd, started 11/2022  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  9.  KPd, started 11/2022 - 6/2023  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  11.  PACE, C1 8/10/2023  12.  XRT, 10/19/2023, 800 cGy to the right rib in one fraction  13.  XRT, 11/10/2023, right pelvis and right tibia  14.  Doxorubicin, bortezomib, dexamethasone, 11/13/2023  15.  Isatuximab, carfilzomib, dexamethasone - 12/27/2023 - 1/17/2024 with no **Note De-Identified via Obfuscation** response  16.  Talquetamab bridging, 1/24/2024 - 2/16/2024  17.  XRT to L2-L4 with 8 Gy in 1 fraction on 1/31/2024  18.  Ciltacabtagene autoleucel (Carvykti), D0 = 3/11/2024   - collection of T-cells on 12/7/2023 but out of spec due to low cell count (0.1 x 10(6) cells/kg)   - second apheresis for T-cells on 1/23/2024   - lymphodepleting chemotherapy with cyclophosphamide 300 mg/m2/day and fludarabine 30 mg/m2/day for 3 days, from 3/6/2024 - 3/8/2024   - Cilta-cel infusion, 0.5 to 1 x 10(6) CAR-positive viable T-cells on 3/11/2024   -  Grade 1 CRS, no treatment required   - Post-CAR T course notable for neutropenic fever and non-neutropenic fever, c.diff colitis      RESPONSE TO THERAPY: VGPR (bone marrow negative, MRD pending)    Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa  Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm      ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    Mr. Jayshaun Ara returns to the Vibra Hospital Of Central Dakotas myeloma clinic today for post-CAR T-cell follow-up.  He is now D+106 from Cilta-cel infusion.    He reports that he feels well.  He continues to follow up locally with Dr. Dreama Saa, including having his labs checked weekly.  He has not needed any transfusions and has had no infection.  He has had no diarrhea.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
-  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
+  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+  "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
 }</t>
         </is>
       </c>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,35 +473,291 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+  "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+  "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-01-07_00:00:00.000_Progress_Notes_91124</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2022-01-07_00:00:00.000_Progress_Notes_91124",
+  "content": "chloride 0.9 % flush, Place 10 mL into the line daily. Place 10cc into each lumen, Disp: 400 mL, Rfl: 0    valACYclovir 500 MG tablet, Take 1 tablet (500 mg) by mouth every 12 hours., Disp: 60 tablet, Rfl: 2      Labs:  Results for orders placed or performed in visit on 01/07/22   Lab Add On Order, Non-Micro   Result Value Ref Range    Lab Test Requested HCV PCR     Specimen Type/Description Blood     Sample To Use Most recent     Test Request Status             Assessment/Plan:    #MM:  - Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CTshowedlytic lesions inthe left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  -In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated withRevlimid (12/2019-4/2020),thenRVd (4/20-5/20), thendara-RVd (6/2020-4/2021).   -From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  -PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72.']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158",
+  "content": "appointment which showed bilateral conductive hearing loss and chronic tympanic perforation. There was no evidence of current infection. Recommended to follow up in 4-6 months.       PAST MEDICAL HISTORY  - IgG kappa multiple myeloma  - bilateral TM perforation; has happened multiple times since childhood; per patient, a specialist said surgery is possible, but he declined  - bilateral hearing loss  - kidney stone in 2005     PAST SURGICAL HISTORY:  - None     SOCIAL HISTORY:   - No cigarette smoking, alcohol or illicit drug use   - Undocumented immigrant, has been living in the Korea for 23 years  - Married, has 3 children     FAMILY HISTORY:  - No history of myeloma, lymphoma or leukemia  - Mother with DM and HTN      MEDICATIONS:  See medication list     RESTAGING/ PRE-TRANSPLANT WORKUP:  12/15: HSV1 (seropositive), HSV2 (seronegative), CMV (seropositive), VZV (seropositive), HIV (seronegative)    COVID 19 swabs have been negative    Quantiferon test was negative     12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3    12/17: IgG 537, IgA 64, IgM 13    12/17: 24 hours urine protein analysis - creatinine clearance of 169, immunofixation was negative **Note De-Identified via Obfuscation** 12/16: EKG: NSR, QTc 419    12/22: Echocardiogram  EF 72%, normal strain pattern      12/23: PFTs - normal     12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells    12/17:"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>203.94</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+  "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;9.81</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;1.91</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Latest Reference Range &amp; Units 04/08/24 07:15   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+  "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;0.15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&gt;115.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike 1.0; previous monoclonal kappa free light chain not detected.']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{
+  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>&gt;0.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>{
   "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
@@ -510,162 +766,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>&lt;9.81</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;1.91</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9', 'Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
-  "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>203.94</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-02-08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
-  "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>129.54</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&gt;914.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
-  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021-12-15_00:00:00.000_Progress_Notes_91091</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021-06-XX</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.', 'CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{
-  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
-  "content": "ClinicalNoteId: e0fe5117303101ffff95cb43abbdb4e9c0eb3eb77eae9455a8c1545cef1cbf01 PatientId: d2c1f46e2b3267d315fb03f76724aa7036ea01b3f1803e94126e26dc26881629 MasterPatientId: 79c35d0543d88a3689d61af6940d5d4e1ad21e3b1b3d5ef9464680c2ff2910e3 DataOwnerId: c877ef723bbc0de29171dcaa993fe3b86064bb0d0d7be4523bb0b71688ebbb72 NoteDateTime: 2021-12-15 00:00:00.000 NoteType: Progress Notes NoteText: **Note De-Identified via Obfuscation** Sharon CANCER CARE ALLIANCE OUTPATIENT ARRIVAL HISTORY AND PHYSICAL    Attending: Golden Circle    IDENTIFICATION     Donyell Ding Diarte is a 12 year old male with a diagnosis of IgG kappa multiple myeloma who presents today for evaluation for a proposed autologous peripheral blood stem cell collection and transplant.    HISTORY OF PRESENT ILLNESS   Mr. Jas Betten a 9 year old with IgG kappa multiple myeloma, who was originally diagnosed around 03/2019 after experiencing generalized weakness, back, and chest wall discomfort for 10 days. At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10. UPEP was positive by immunofixation, and his bone marrow showed myeloma. The patient had a CT that had lytic lesions including the left fifth rib and the sacrum. At that time, he was started on CyBorD (Cytoxan, Velcade, and Dexamethasone), and completed 6 cycles of this, from 3/2019 - 11/2019.     In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. He was being evaluated for an autotransplant at Neurological Institute Ambulatory Surgical Center LLC, but his insurance would not cover the transplant. He was then placed on maintenance Revlimid from 12/2019-4/2020, when he got switched to RVd (Revlimid, Velcade, and Dexamethasone) as his M-spike increased again, then to RVd with daratumumab in 6/2020.     In 11/2020, Mr. Tapia Diarte tested positive for COVID. He was experiencing congestion, but attributed it to getting his flu vaccine that week. His wife and youngest child also tested positive at that time, but were asymptomatic. He has never been vaccinated against COVID. Treatment was  stopped for a week or 2 at that time, then restarted. In 10/2020, kappa FLC was 24.67, kappa/lambda ratio was 137.06. In 12/2020, kappa FLC was 30.75, kappa/lambda ratio 161.84. From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitoneal adenopathy, as well as an increasing left skull mass.      PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow at that time showed a 3.1 x 3.6 cm skull"
-}</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
